--- a/New-Implementation/Data/simple-feasible.xlsx
+++ b/New-Implementation/Data/simple-feasible.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,11 +508,11 @@
     </row>
     <row r="3">
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -532,11 +532,11 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -555,7 +555,7 @@
     </row>
     <row r="4">
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -602,11 +602,11 @@
     </row>
     <row r="5">
       <c r="E5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -620,17 +620,17 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -649,7 +649,7 @@
     </row>
     <row r="6">
       <c r="E6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -696,11 +696,11 @@
     </row>
     <row r="7">
       <c r="E7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -720,11 +720,11 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -743,7 +743,7 @@
     </row>
     <row r="8">
       <c r="E8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -761,13 +761,13 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -789,15 +789,36 @@
       </c>
     </row>
     <row r="9">
+      <c r="E9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>CPU1</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -815,11 +836,32 @@
       </c>
     </row>
     <row r="10">
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>CPU1</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>-0</v>
+      </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -841,15 +883,36 @@
       </c>
     </row>
     <row r="11">
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>CPU1</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -871,7 +934,7 @@
         <v>2</v>
       </c>
       <c r="K12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -897,11 +960,11 @@
         <v>2</v>
       </c>
       <c r="K13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -923,7 +986,7 @@
         <v>2</v>
       </c>
       <c r="K14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -949,11 +1012,11 @@
         <v>2</v>
       </c>
       <c r="K15" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -972,10 +1035,10 @@
     </row>
     <row r="16">
       <c r="J16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -998,14 +1061,14 @@
     </row>
     <row r="17">
       <c r="J17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -1024,10 +1087,10 @@
     </row>
     <row r="18">
       <c r="J18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1050,14 +1113,14 @@
     </row>
     <row r="19">
       <c r="J19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K19" t="n">
         <v>3</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1076,7 +1139,7 @@
     </row>
     <row r="20">
       <c r="J20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K20" t="n">
         <v>4</v>
@@ -1102,14 +1165,14 @@
     </row>
     <row r="21">
       <c r="J21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -1123,7 +1186,7 @@
         </is>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="22">
@@ -1131,7 +1194,7 @@
         <v>3</v>
       </c>
       <c r="K22" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1149,19 +1212,19 @@
         </is>
       </c>
       <c r="O22" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="J23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -1180,7 +1243,7 @@
     </row>
     <row r="24">
       <c r="J24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K24" t="n">
         <v>1</v>
@@ -1201,19 +1264,19 @@
         </is>
       </c>
       <c r="O24" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="J25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -1232,10 +1295,10 @@
     </row>
     <row r="26">
       <c r="J26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1253,19 +1316,19 @@
         </is>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="27">
       <c r="J27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -1284,10 +1347,10 @@
     </row>
     <row r="28">
       <c r="J28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1305,19 +1368,19 @@
         </is>
       </c>
       <c r="O28" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="J29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K29" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -1336,10 +1399,10 @@
     </row>
     <row r="30">
       <c r="J30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1362,14 +1425,14 @@
     </row>
     <row r="31">
       <c r="J31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -1388,10 +1451,10 @@
     </row>
     <row r="32">
       <c r="J32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1414,14 +1477,14 @@
     </row>
     <row r="33">
       <c r="J33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -1440,10 +1503,10 @@
     </row>
     <row r="34">
       <c r="J34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1466,14 +1529,14 @@
     </row>
     <row r="35">
       <c r="J35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -1492,10 +1555,10 @@
     </row>
     <row r="36">
       <c r="J36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K36" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1513,19 +1576,19 @@
         </is>
       </c>
       <c r="O36" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="J37" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -1544,10 +1607,10 @@
     </row>
     <row r="38">
       <c r="J38" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -1570,14 +1633,14 @@
     </row>
     <row r="39">
       <c r="J39" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -1596,10 +1659,10 @@
     </row>
     <row r="40">
       <c r="J40" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -1622,14 +1685,14 @@
     </row>
     <row r="41">
       <c r="J41" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K41" t="n">
         <v>4</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -1643,58 +1706,6 @@
         </is>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="J42" t="n">
-        <v>6</v>
-      </c>
-      <c r="K42" t="n">
-        <v>5</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>C1</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>CPU1</t>
-        </is>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="J43" t="n">
-        <v>6</v>
-      </c>
-      <c r="K43" t="n">
-        <v>6</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>C1</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>CPU1</t>
-        </is>
-      </c>
-      <c r="O43" t="n">
         <v>0</v>
       </c>
     </row>

--- a/New-Implementation/Data/simple-feasible.xlsx
+++ b/New-Implementation/Data/simple-feasible.xlsx
@@ -479,7 +479,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -855,7 +855,7 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="15">
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="O21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1264,7 +1264,7 @@
         </is>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="25">
@@ -1316,7 +1316,7 @@
         </is>
       </c>
       <c r="O26" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1394,7 +1394,7 @@
         </is>
       </c>
       <c r="O29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
